--- a/exp.xlsx
+++ b/exp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Csig</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>ESTOI(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sA_in+sP_in</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +659,7 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -687,6 +691,9 @@
       <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -659,13 +659,13 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="53.875" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
